--- a/US/data/BTS/TRPT/TVT_historical - Urban - Semiannual.xlsx
+++ b/US/data/BTS/TRPT/TVT_historical - Urban - Semiannual.xlsx
@@ -891,13 +891,13 @@
         <v>254312</v>
       </c>
       <c r="BL2" t="n">
-        <v>267306</v>
+        <v>267086</v>
       </c>
       <c r="BM2" t="n">
         <v>290406</v>
       </c>
       <c r="BN2" t="n">
-        <v>42122</v>
+        <v>133073</v>
       </c>
       <c r="BO2" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>522524</v>
       </c>
       <c r="BL3" t="n">
-        <v>538903</v>
+        <v>538634</v>
       </c>
       <c r="BM3" t="n">
-        <v>582859</v>
+        <v>582853</v>
       </c>
       <c r="BN3" t="n">
-        <v>85186</v>
+        <v>266027</v>
       </c>
       <c r="BO3" t="n">
         <v>0</v>
@@ -1301,13 +1301,13 @@
         <v>249054</v>
       </c>
       <c r="BL4" t="n">
-        <v>259743</v>
+        <v>259689</v>
       </c>
       <c r="BM4" t="n">
-        <v>280148</v>
+        <v>280147</v>
       </c>
       <c r="BN4" t="n">
-        <v>41416</v>
+        <v>128656</v>
       </c>
       <c r="BO4" t="n">
         <v>0</v>
@@ -1506,13 +1506,13 @@
         <v>1025890</v>
       </c>
       <c r="BL5" t="n">
-        <v>1065952</v>
+        <v>1065409</v>
       </c>
       <c r="BM5" t="n">
-        <v>1153412</v>
+        <v>1153406</v>
       </c>
       <c r="BN5" t="n">
-        <v>168724</v>
+        <v>527756</v>
       </c>
       <c r="BO5" t="n">
         <v>0</v>

--- a/US/data/BTS/TRPT/TVT_historical - Urban - Semiannual.xlsx
+++ b/US/data/BTS/TRPT/TVT_historical - Urban - Semiannual.xlsx
@@ -897,7 +897,7 @@
         <v>290406</v>
       </c>
       <c r="BN2" t="n">
-        <v>133073</v>
+        <v>179263</v>
       </c>
       <c r="BO2" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>582853</v>
       </c>
       <c r="BN3" t="n">
-        <v>266027</v>
+        <v>357809</v>
       </c>
       <c r="BO3" t="n">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>280147</v>
       </c>
       <c r="BN4" t="n">
-        <v>128656</v>
+        <v>173726</v>
       </c>
       <c r="BO4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1153406</v>
       </c>
       <c r="BN5" t="n">
-        <v>527756</v>
+        <v>710798</v>
       </c>
       <c r="BO5" t="n">
         <v>0</v>
